--- a/outputs-HGR-r202-archive/g__Streptococcus.xlsx
+++ b/outputs-HGR-r202-archive/g__Streptococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1477,157 +1477,157 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49384.fa</t>
+          <t>even_MAG-GUT83503.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3184619587859872</v>
+        <v>0.008430826165579637</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001260658778193452</v>
+        <v>0.001690404076990521</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0002376959418702774</v>
+        <v>0.02096689447873696</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003483628769850721</v>
+        <v>0.001169164302464124</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03243579939485534</v>
+        <v>0.05974218796541848</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02745620370174078</v>
+        <v>0.05928926772120192</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05633354557489129</v>
+        <v>0.2079348902608021</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04553453259772963</v>
+        <v>0.07592988432494113</v>
       </c>
       <c r="J13" t="n">
-        <v>0.009019387528842744</v>
+        <v>0.002189854569960232</v>
       </c>
       <c r="K13" t="n">
-        <v>0.005701656245610511</v>
+        <v>0.005979116476864283</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01643673586198991</v>
+        <v>0.02791804868666974</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05577964746455807</v>
+        <v>0.04874202347274049</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04926154757286211</v>
+        <v>0.002013663272985188</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0003902866280141332</v>
+        <v>0.003139473029928851</v>
       </c>
       <c r="P13" t="n">
-        <v>0.00164707755461249</v>
+        <v>0.0003581338530954282</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0138932974126451</v>
+        <v>0.0349085909749468</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1061124355309533</v>
+        <v>0.142087277054686</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1525553546438323</v>
+        <v>0.1739299053755103</v>
       </c>
       <c r="T13" t="n">
-        <v>0.08802723467962492</v>
+        <v>0.1142247890259855</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00282530480655722</v>
+        <v>0.007030796210792569</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01314601052477858</v>
+        <v>0.00232480869969971</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3184619587859872</v>
+        <v>0.2079348902608021</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>s__Streptococcus agalactiae</t>
+          <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>s__Streptococcus agalactiae</t>
+          <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6224.fa</t>
+          <t>even_MAG-GUT89273.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1389361448228341</v>
+        <v>0.01058929035323532</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001321445968565257</v>
+        <v>0.003087980677550224</v>
       </c>
       <c r="D14" t="n">
-        <v>0.000313158975540953</v>
+        <v>0.02052673725623493</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004641265031415814</v>
+        <v>0.001755601209647096</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04637818593741595</v>
+        <v>0.08057699628307573</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03539165895343632</v>
+        <v>0.05378008548741051</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06714829723844187</v>
+        <v>0.1791721879231055</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04775530156681754</v>
+        <v>0.03104390032946524</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02304144425932247</v>
+        <v>0.02165155727076014</v>
       </c>
       <c r="K14" t="n">
-        <v>0.007497971494050106</v>
+        <v>0.007796884199391692</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0223776901168657</v>
+        <v>0.03133901367228504</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05605281835838614</v>
+        <v>0.04163614904376605</v>
       </c>
       <c r="N14" t="n">
-        <v>0.07616629733297348</v>
+        <v>0.001302371677933793</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0006866363859626857</v>
+        <v>0.002580100295451512</v>
       </c>
       <c r="P14" t="n">
-        <v>0.00137949650015495</v>
+        <v>0.0003044567743299771</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02371868669857271</v>
+        <v>0.05005219969441024</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1262233117489625</v>
+        <v>0.1316413180604734</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1886656773635898</v>
+        <v>0.1891899461509715</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1143739212936841</v>
+        <v>0.131946748308769</v>
       </c>
       <c r="U14" t="n">
-        <v>0.004119823638029662</v>
+        <v>0.006642801035962663</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01381076631497785</v>
+        <v>0.003383674295770434</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1886656773635898</v>
+        <v>0.1891899461509715</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -1643,90 +1643,90 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83503.fa</t>
+          <t>even_MAG-GUT89332.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.008430826165579637</v>
+        <v>0.01058929035323532</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001690404076990521</v>
+        <v>0.003087980677550224</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02096689447873696</v>
+        <v>0.02052673725623493</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001169164302464124</v>
+        <v>0.001755601209647096</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05974218796541848</v>
+        <v>0.08057699628307573</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05928926772120192</v>
+        <v>0.05378008548741051</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2079348902608021</v>
+        <v>0.1791721879231055</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07592988432494113</v>
+        <v>0.03104390032946524</v>
       </c>
       <c r="J15" t="n">
-        <v>0.002189854569960232</v>
+        <v>0.02165155727076014</v>
       </c>
       <c r="K15" t="n">
-        <v>0.005979116476864283</v>
+        <v>0.007796884199391692</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02791804868666974</v>
+        <v>0.03133901367228504</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04874202347274049</v>
+        <v>0.04163614904376605</v>
       </c>
       <c r="N15" t="n">
-        <v>0.002013663272985188</v>
+        <v>0.001302371677933793</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003139473029928851</v>
+        <v>0.002580100295451512</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0003581338530954282</v>
+        <v>0.0003044567743299771</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0349085909749468</v>
+        <v>0.05005219969441024</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142087277054686</v>
+        <v>0.1316413180604734</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1739299053755103</v>
+        <v>0.1891899461509715</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1142247890259855</v>
+        <v>0.131946748308769</v>
       </c>
       <c r="U15" t="n">
-        <v>0.007030796210792569</v>
+        <v>0.006642801035962663</v>
       </c>
       <c r="V15" t="n">
-        <v>0.00232480869969971</v>
+        <v>0.003383674295770434</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2079348902608021</v>
+        <v>0.1891899461509715</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>s__Streptococcus lutetiensis</t>
+          <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>s__Streptococcus lutetiensis</t>
+          <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89273.fa</t>
+          <t>even_MAG-GUT89668.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1809,7 +1809,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89332.fa</t>
+          <t>even_MAG-GUT89684.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1892,339 +1892,339 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89668.fa</t>
+          <t>even_MAG-GUT89695.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01058929035323532</v>
+        <v>0.009775302831807364</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003087980677550224</v>
+        <v>0.001616738888054614</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02052673725623493</v>
+        <v>0.1252877536163491</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001755601209647096</v>
+        <v>0.001204271749687695</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08057699628307573</v>
+        <v>0.06779719270011518</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05378008548741051</v>
+        <v>0.04336856181539865</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1791721879231055</v>
+        <v>0.1893908203178128</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03104390032946524</v>
+        <v>0.04069078584405559</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02165155727076014</v>
+        <v>0.01506663580730866</v>
       </c>
       <c r="K18" t="n">
-        <v>0.007796884199391692</v>
+        <v>0.005508186551530143</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03133901367228504</v>
+        <v>0.02693399703993793</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04163614904376605</v>
+        <v>0.04645058132244061</v>
       </c>
       <c r="N18" t="n">
-        <v>0.001302371677933793</v>
+        <v>0.001071770726191024</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002580100295451512</v>
+        <v>0.003225372959117263</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0003044567743299771</v>
+        <v>0.0001559134360617791</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.05005219969441024</v>
+        <v>0.01450228874895171</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1316413180604734</v>
+        <v>0.1233739706362846</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1891899461509715</v>
+        <v>0.1687869168523675</v>
       </c>
       <c r="T18" t="n">
-        <v>0.131946748308769</v>
+        <v>0.1068076332650982</v>
       </c>
       <c r="U18" t="n">
-        <v>0.006642801035962663</v>
+        <v>0.005822209600371307</v>
       </c>
       <c r="V18" t="n">
-        <v>0.003383674295770434</v>
+        <v>0.003163095291058149</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1891899461509715</v>
+        <v>0.1893908203178128</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>s__Streptococcus sp900550895</t>
+          <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>s__Streptococcus sp900550895</t>
+          <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89684.fa</t>
+          <t>even_MAG-GUT89697.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01058929035323532</v>
+        <v>0.009775302831807364</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003087980677550224</v>
+        <v>0.001616738888054614</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02052673725623493</v>
+        <v>0.1252877536163491</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001755601209647096</v>
+        <v>0.001204271749687695</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08057699628307573</v>
+        <v>0.06779719270011518</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05378008548741051</v>
+        <v>0.04336856181539865</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1791721879231055</v>
+        <v>0.1893908203178128</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03104390032946524</v>
+        <v>0.04069078584405559</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02165155727076014</v>
+        <v>0.01506663580730866</v>
       </c>
       <c r="K19" t="n">
-        <v>0.007796884199391692</v>
+        <v>0.005508186551530143</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03133901367228504</v>
+        <v>0.02693399703993793</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04163614904376605</v>
+        <v>0.04645058132244061</v>
       </c>
       <c r="N19" t="n">
-        <v>0.001302371677933793</v>
+        <v>0.001071770726191024</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002580100295451512</v>
+        <v>0.003225372959117263</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0003044567743299771</v>
+        <v>0.0001559134360617791</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.05005219969441024</v>
+        <v>0.01450228874895171</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1316413180604734</v>
+        <v>0.1233739706362846</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1891899461509715</v>
+        <v>0.1687869168523675</v>
       </c>
       <c r="T19" t="n">
-        <v>0.131946748308769</v>
+        <v>0.1068076332650982</v>
       </c>
       <c r="U19" t="n">
-        <v>0.006642801035962663</v>
+        <v>0.005822209600371307</v>
       </c>
       <c r="V19" t="n">
-        <v>0.003383674295770434</v>
+        <v>0.003163095291058149</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1891899461509715</v>
+        <v>0.1893908203178128</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>s__Streptococcus sp900550895</t>
+          <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>s__Streptococcus sp900550895</t>
+          <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89695.fa</t>
+          <t>even_MAG-GUT89858.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.009775302831807364</v>
+        <v>0.01058929035323532</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001616738888054614</v>
+        <v>0.003087980677550224</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1252877536163491</v>
+        <v>0.02052673725623493</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001204271749687695</v>
+        <v>0.001755601209647096</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06779719270011518</v>
+        <v>0.08057699628307573</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04336856181539865</v>
+        <v>0.05378008548741051</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1893908203178128</v>
+        <v>0.1791721879231055</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04069078584405559</v>
+        <v>0.03104390032946524</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01506663580730866</v>
+        <v>0.02165155727076014</v>
       </c>
       <c r="K20" t="n">
-        <v>0.005508186551530143</v>
+        <v>0.007796884199391692</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02693399703993793</v>
+        <v>0.03133901367228504</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04645058132244061</v>
+        <v>0.04163614904376605</v>
       </c>
       <c r="N20" t="n">
-        <v>0.001071770726191024</v>
+        <v>0.001302371677933793</v>
       </c>
       <c r="O20" t="n">
-        <v>0.003225372959117263</v>
+        <v>0.002580100295451512</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0001559134360617791</v>
+        <v>0.0003044567743299771</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01450228874895171</v>
+        <v>0.05005219969441024</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1233739706362846</v>
+        <v>0.1316413180604734</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1687869168523675</v>
+        <v>0.1891899461509715</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1068076332650982</v>
+        <v>0.131946748308769</v>
       </c>
       <c r="U20" t="n">
-        <v>0.005822209600371307</v>
+        <v>0.006642801035962663</v>
       </c>
       <c r="V20" t="n">
-        <v>0.003163095291058149</v>
+        <v>0.003383674295770434</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1893908203178128</v>
+        <v>0.1891899461509715</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>s__Streptococcus lutetiensis</t>
+          <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>s__Streptococcus lutetiensis</t>
+          <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89697.fa</t>
+          <t>even_MAG-GUT89860.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.009775302831807364</v>
+        <v>0.01058929035323532</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001616738888054614</v>
+        <v>0.003087980677550224</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1252877536163491</v>
+        <v>0.02052673725623493</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001204271749687695</v>
+        <v>0.001755601209647096</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06779719270011518</v>
+        <v>0.08057699628307573</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04336856181539865</v>
+        <v>0.05378008548741051</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1893908203178128</v>
+        <v>0.1791721879231055</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04069078584405559</v>
+        <v>0.03104390032946524</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01506663580730866</v>
+        <v>0.02165155727076014</v>
       </c>
       <c r="K21" t="n">
-        <v>0.005508186551530143</v>
+        <v>0.007796884199391692</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02693399703993793</v>
+        <v>0.03133901367228504</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04645058132244061</v>
+        <v>0.04163614904376605</v>
       </c>
       <c r="N21" t="n">
-        <v>0.001071770726191024</v>
+        <v>0.001302371677933793</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003225372959117263</v>
+        <v>0.002580100295451512</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0001559134360617791</v>
+        <v>0.0003044567743299771</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01450228874895171</v>
+        <v>0.05005219969441024</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1233739706362846</v>
+        <v>0.1316413180604734</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1687869168523675</v>
+        <v>0.1891899461509715</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1068076332650982</v>
+        <v>0.131946748308769</v>
       </c>
       <c r="U21" t="n">
-        <v>0.005822209600371307</v>
+        <v>0.006642801035962663</v>
       </c>
       <c r="V21" t="n">
-        <v>0.003163095291058149</v>
+        <v>0.003383674295770434</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1893908203178128</v>
+        <v>0.1891899461509715</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>s__Streptococcus lutetiensis</t>
+          <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>s__Streptococcus lutetiensis</t>
+          <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89858.fa</t>
+          <t>even_MAG-GUT89941.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2307,7 +2307,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89860.fa</t>
+          <t>even_MAG-GUT90444.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2390,7 +2390,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89941.fa</t>
+          <t>even_MAG-GUT90475.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2473,90 +2473,90 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90444.fa</t>
+          <t>even_MAG-GUT90508.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01058929035323532</v>
+        <v>0.009775302831807364</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003087980677550224</v>
+        <v>0.001616738888054614</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02052673725623493</v>
+        <v>0.1252877536163491</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001755601209647096</v>
+        <v>0.001204271749687695</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08057699628307573</v>
+        <v>0.06779719270011518</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05378008548741051</v>
+        <v>0.04336856181539865</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1791721879231055</v>
+        <v>0.1893908203178128</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03104390032946524</v>
+        <v>0.04069078584405559</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02165155727076014</v>
+        <v>0.01506663580730866</v>
       </c>
       <c r="K25" t="n">
-        <v>0.007796884199391692</v>
+        <v>0.005508186551530143</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03133901367228504</v>
+        <v>0.02693399703993793</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04163614904376605</v>
+        <v>0.04645058132244061</v>
       </c>
       <c r="N25" t="n">
-        <v>0.001302371677933793</v>
+        <v>0.001071770726191024</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002580100295451512</v>
+        <v>0.003225372959117263</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0003044567743299771</v>
+        <v>0.0001559134360617791</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.05005219969441024</v>
+        <v>0.01450228874895171</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1316413180604734</v>
+        <v>0.1233739706362846</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1891899461509715</v>
+        <v>0.1687869168523675</v>
       </c>
       <c r="T25" t="n">
-        <v>0.131946748308769</v>
+        <v>0.1068076332650982</v>
       </c>
       <c r="U25" t="n">
-        <v>0.006642801035962663</v>
+        <v>0.005822209600371307</v>
       </c>
       <c r="V25" t="n">
-        <v>0.003383674295770434</v>
+        <v>0.003163095291058149</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1891899461509715</v>
+        <v>0.1893908203178128</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>s__Streptococcus sp900550895</t>
+          <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>s__Streptococcus sp900550895</t>
+          <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90475.fa</t>
+          <t>even_MAG-GUT90581.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2639,496 +2639,330 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90508.fa</t>
+          <t>even_MAG-GUT90913.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009775302831807364</v>
+        <v>0.01058929035323532</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001616738888054614</v>
+        <v>0.003087980677550224</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1252877536163491</v>
+        <v>0.02052673725623493</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001204271749687695</v>
+        <v>0.001755601209647096</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06779719270011518</v>
+        <v>0.08057699628307573</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04336856181539865</v>
+        <v>0.05378008548741051</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1893908203178128</v>
+        <v>0.1791721879231055</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04069078584405559</v>
+        <v>0.03104390032946524</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01506663580730866</v>
+        <v>0.02165155727076014</v>
       </c>
       <c r="K27" t="n">
-        <v>0.005508186551530143</v>
+        <v>0.007796884199391692</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02693399703993793</v>
+        <v>0.03133901367228504</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04645058132244061</v>
+        <v>0.04163614904376605</v>
       </c>
       <c r="N27" t="n">
-        <v>0.001071770726191024</v>
+        <v>0.001302371677933793</v>
       </c>
       <c r="O27" t="n">
-        <v>0.003225372959117263</v>
+        <v>0.002580100295451512</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0001559134360617791</v>
+        <v>0.0003044567743299771</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01450228874895171</v>
+        <v>0.05005219969441024</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1233739706362846</v>
+        <v>0.1316413180604734</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1687869168523675</v>
+        <v>0.1891899461509715</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1068076332650982</v>
+        <v>0.131946748308769</v>
       </c>
       <c r="U27" t="n">
-        <v>0.005822209600371307</v>
+        <v>0.006642801035962663</v>
       </c>
       <c r="V27" t="n">
-        <v>0.003163095291058149</v>
+        <v>0.003383674295770434</v>
       </c>
       <c r="W27" t="n">
-        <v>0.1893908203178128</v>
+        <v>0.1891899461509715</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>s__Streptococcus lutetiensis</t>
+          <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>s__Streptococcus lutetiensis</t>
+          <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90581.fa</t>
+          <t>even_MAG-GUT91144.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01058929035323532</v>
+        <v>0.009775302831807364</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003087980677550224</v>
+        <v>0.001616738888054614</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02052673725623493</v>
+        <v>0.1252877536163491</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001755601209647096</v>
+        <v>0.001204271749687695</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08057699628307573</v>
+        <v>0.06779719270011518</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05378008548741051</v>
+        <v>0.04336856181539865</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1791721879231055</v>
+        <v>0.1893908203178128</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03104390032946524</v>
+        <v>0.04069078584405559</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02165155727076014</v>
+        <v>0.01506663580730866</v>
       </c>
       <c r="K28" t="n">
-        <v>0.007796884199391692</v>
+        <v>0.005508186551530143</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03133901367228504</v>
+        <v>0.02693399703993793</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04163614904376605</v>
+        <v>0.04645058132244061</v>
       </c>
       <c r="N28" t="n">
-        <v>0.001302371677933793</v>
+        <v>0.001071770726191024</v>
       </c>
       <c r="O28" t="n">
-        <v>0.002580100295451512</v>
+        <v>0.003225372959117263</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0003044567743299771</v>
+        <v>0.0001559134360617791</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.05005219969441024</v>
+        <v>0.01450228874895171</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1316413180604734</v>
+        <v>0.1233739706362846</v>
       </c>
       <c r="S28" t="n">
-        <v>0.1891899461509715</v>
+        <v>0.1687869168523675</v>
       </c>
       <c r="T28" t="n">
-        <v>0.131946748308769</v>
+        <v>0.1068076332650982</v>
       </c>
       <c r="U28" t="n">
-        <v>0.006642801035962663</v>
+        <v>0.005822209600371307</v>
       </c>
       <c r="V28" t="n">
-        <v>0.003383674295770434</v>
+        <v>0.003163095291058149</v>
       </c>
       <c r="W28" t="n">
-        <v>0.1891899461509715</v>
+        <v>0.1893908203178128</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>s__Streptococcus sp900550895</t>
+          <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>s__Streptococcus sp900550895</t>
+          <t>s__Streptococcus lutetiensis</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90913.fa</t>
+          <t>even_MAG-GUT91355.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01058929035323532</v>
+        <v>0.002267904230244214</v>
       </c>
       <c r="C29" t="n">
-        <v>0.003087980677550224</v>
+        <v>0.08465594520276537</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02052673725623493</v>
+        <v>3.573583685047482e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001755601209647096</v>
+        <v>0.02849198832170318</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08057699628307573</v>
+        <v>0.0299834346122576</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05378008548741051</v>
+        <v>0.02935136033838005</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1791721879231055</v>
+        <v>0.06421795149645437</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03104390032946524</v>
+        <v>0.142477648762632</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02165155727076014</v>
+        <v>0.0102307339602782</v>
       </c>
       <c r="K29" t="n">
-        <v>0.007796884199391692</v>
+        <v>0.01198990458278959</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03133901367228504</v>
+        <v>0.01903461148446513</v>
       </c>
       <c r="M29" t="n">
-        <v>0.04163614904376605</v>
+        <v>0.04232438685779472</v>
       </c>
       <c r="N29" t="n">
-        <v>0.001302371677933793</v>
+        <v>0.0001302532129484869</v>
       </c>
       <c r="O29" t="n">
-        <v>0.002580100295451512</v>
+        <v>0.0007995441081181391</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0003044567743299771</v>
+        <v>0.005589712084948631</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.05005219969441024</v>
+        <v>0.1972331292932738</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1316413180604734</v>
+        <v>0.09448566022295354</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1891899461509715</v>
+        <v>0.1418724922363223</v>
       </c>
       <c r="T29" t="n">
-        <v>0.131946748308769</v>
+        <v>0.08635291307221442</v>
       </c>
       <c r="U29" t="n">
-        <v>0.006642801035962663</v>
+        <v>0.004367844639735052</v>
       </c>
       <c r="V29" t="n">
-        <v>0.003383674295770434</v>
+        <v>0.004106845442870819</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1891899461509715</v>
+        <v>0.1972331292932738</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>s__Streptococcus sp900550895</t>
+          <t>s__Streptococcus sp900543065</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>s__Streptococcus sp900550895</t>
+          <t>s__Streptococcus sp900543065</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91144.fa</t>
+          <t>even_MAG-GUT915.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.009775302831807364</v>
+        <v>0.01852524730700194</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001616738888054614</v>
+        <v>0.00446031301675617</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1252877536163491</v>
+        <v>0.07523691000652166</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001204271749687695</v>
+        <v>0.001616462051847882</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06779719270011518</v>
+        <v>0.06887302007267634</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04336856181539865</v>
+        <v>0.04055545013147326</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1893908203178128</v>
+        <v>0.1554450219203288</v>
       </c>
       <c r="I30" t="n">
-        <v>0.04069078584405559</v>
+        <v>0.04338192810365372</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01506663580730866</v>
+        <v>0.01624731449772588</v>
       </c>
       <c r="K30" t="n">
-        <v>0.005508186551530143</v>
+        <v>0.006729074088990786</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02693399703993793</v>
+        <v>0.02758582884091889</v>
       </c>
       <c r="M30" t="n">
-        <v>0.04645058132244061</v>
+        <v>0.05677800196143409</v>
       </c>
       <c r="N30" t="n">
-        <v>0.001071770726191024</v>
+        <v>0.001259611665366735</v>
       </c>
       <c r="O30" t="n">
-        <v>0.003225372959117263</v>
+        <v>0.006290701918588935</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0001559134360617791</v>
+        <v>0.0003338830316383633</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01450228874895171</v>
+        <v>0.04113967737726668</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1233739706362846</v>
+        <v>0.1348804024159788</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1687869168523675</v>
+        <v>0.1741627748882046</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1068076332650982</v>
+        <v>0.1158432499353871</v>
       </c>
       <c r="U30" t="n">
-        <v>0.005822209600371307</v>
+        <v>0.00732633819534603</v>
       </c>
       <c r="V30" t="n">
-        <v>0.003163095291058149</v>
+        <v>0.003328788572893161</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1893908203178128</v>
+        <v>0.1741627748882046</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>s__Streptococcus lutetiensis</t>
+          <t>s__Streptococcus sp900550895</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
-        <is>
-          <t>s__Streptococcus lutetiensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91355.fa</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.002267904230244214</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.08465594520276537</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3.573583685047482e-05</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.02849198832170318</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.0299834346122576</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.02935136033838005</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.06421795149645437</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.142477648762632</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0102307339602782</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.01198990458278959</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.01903461148446513</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.04232438685779472</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.0001302532129484869</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.0007995441081181391</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0.005589712084948631</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.1972331292932738</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.09448566022295354</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.1418724922363223</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.08635291307221442</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.004367844639735052</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.004106845442870819</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0.1972331292932738</v>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>s__Streptococcus sp900543065</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>s__Streptococcus sp900543065</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT915.fa</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.01852524730700194</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.00446031301675617</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.07523691000652166</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.001616462051847882</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.06887302007267634</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.04055545013147326</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.1554450219203288</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.04338192810365372</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.01624731449772588</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.006729074088990786</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.02758582884091889</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.05677800196143409</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.001259611665366735</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.006290701918588935</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0.0003338830316383633</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.04113967737726668</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.1348804024159788</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.1741627748882046</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.1158432499353871</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0.00732633819534603</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.003328788572893161</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0.1741627748882046</v>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>s__Streptococcus sp900550895</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
         <is>
           <t>s__Streptococcus sp900550895</t>
         </is>
